--- a/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
+++ b/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T16:50:38+01:00</t>
+    <t>2023-03-15T11:10:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
+++ b/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T11:10:28+01:00</t>
+    <t>2023-03-15T12:08:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
+++ b/www/pdsm/3.0.0/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T12:08:10+01:00</t>
+    <t>2023-03-15T13:45:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
